--- a/data/results/results_summariesSingleTC.xlsx
+++ b/data/results/results_summariesSingleTC.xlsx
@@ -20,7 +20,1258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="556">
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC02_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC03_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC04_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC05_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC06_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC07_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC08_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC09_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC10_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC11_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC12_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC06_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>TC10_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>TC12_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC02_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC03_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC04_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC05_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC06_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC07_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC08_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC09_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC10_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC11_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC12_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC02_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC03_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC04_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC05_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC06_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC07_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC08_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC09_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC10_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC11_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC12_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC02_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC03_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC04_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC05_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC06_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC07_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC08_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC09_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC10_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC11_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC12_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC02_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC03_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC04_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC05_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC06_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC07_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC08_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC09_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC10_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC11_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC12_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC03_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC05_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC09_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC10_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC11_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC12_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC02_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC03_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC04_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC05_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC06_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC07_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC08_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC09_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC10_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC11_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC12_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC06_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>TC10_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>TC12_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC02_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC03_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC04_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC05_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC06_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC07_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC08_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC09_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC10_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC11_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC12_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC02_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC03_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC04_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC05_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC06_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC07_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC08_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC09_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC10_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC11_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC12_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC02_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC03_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC04_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC05_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC06_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC07_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC08_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC09_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC10_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC11_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC12_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC02_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC03_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC04_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC05_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC06_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC07_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC08_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC09_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC10_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC11_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC12_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC03_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC05_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC09_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC10_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC11_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC12_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC02_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC03_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC04_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC05_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC06_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC07_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC08_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC09_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC10_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC11_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC12_AvailImplem_Rep_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC06_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>TC10_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>TC12_AvailReasonCorrect_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC02_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC03_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC04_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC05_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC06_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC07_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC08_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC09_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC10_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC11_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC12_EmailsAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC02_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC03_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC04_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC05_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC06_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC07_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC08_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC09_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC10_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC11_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>TC12_HandsOffAllow_Observed_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC02_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC03_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC04_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC05_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC06_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC07_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC08_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC09_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC10_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC11_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>TC12_LevelObserved_Instr_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC01_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC02_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC03_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC04_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC05_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC06_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC07_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC08_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC09_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC10_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC11_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>TC12_LevelObserved_Rep_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>TC03_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC05_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC09_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC10_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC11_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>TC12_TransProblems_rel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
   <si>
     <t>Exp</t>
   </si>
@@ -457,7 +1708,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -472,11 +1723,32 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -485,6 +1757,27 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,52 +1810,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>430</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>16</v>
+        <v>433</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>21</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
@@ -570,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>419</v>
       </c>
       <c r="C2" s="0">
         <v>84.939999999999998</v>
@@ -620,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>420</v>
       </c>
       <c r="C3" s="0">
         <v>84.939999999999998</v>
@@ -670,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="C4" s="0">
         <v>81.819999999999993</v>
@@ -720,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="C5" s="0">
         <v>74.700000000000003</v>
@@ -770,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>423</v>
       </c>
       <c r="C6" s="0">
         <v>85.319999999999993</v>
@@ -820,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="C7" s="0">
         <v>71.430000000000007</v>
@@ -885,25 +2178,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>439</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>447</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>448</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>449</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>450</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
@@ -911,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>441</v>
       </c>
       <c r="C2" s="0">
         <v>62.82</v>
@@ -934,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="C3" s="0">
         <v>75.640000000000001</v>
@@ -957,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>443</v>
       </c>
       <c r="C4" s="0">
         <v>62.630000000000003</v>
@@ -980,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>444</v>
       </c>
       <c r="C5" s="0">
         <v>55.950000000000003</v>
@@ -1003,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>445</v>
       </c>
       <c r="C6" s="0">
         <v>41.270000000000003</v>
@@ -1026,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>446</v>
       </c>
       <c r="C7" s="0">
         <v>23.809999999999999</v>
@@ -1073,52 +2366,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>452</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>461</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>463</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>464</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>466</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>467</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>52</v>
+        <v>469</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>53</v>
+        <v>470</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>54</v>
+        <v>471</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>55</v>
+        <v>472</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>56</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
@@ -1126,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="C2" s="0">
         <v>98.719999999999999</v>
@@ -1176,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="C3" s="0">
         <v>97.120000000000005</v>
@@ -1226,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>456</v>
       </c>
       <c r="C4" s="0">
         <v>95.200000000000003</v>
@@ -1276,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="C5" s="0">
         <v>87.5</v>
@@ -1326,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>458</v>
       </c>
       <c r="C6" s="0">
         <v>95.239999999999995</v>
@@ -1376,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>459</v>
       </c>
       <c r="C7" s="0">
         <v>84.920000000000002</v>
@@ -1450,52 +2743,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>58</v>
+        <v>475</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>482</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>483</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>67</v>
+        <v>484</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>68</v>
+        <v>485</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>486</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>70</v>
+        <v>487</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>71</v>
+        <v>488</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>72</v>
+        <v>489</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>73</v>
+        <v>490</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>75</v>
+        <v>492</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>78</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2">
@@ -1503,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>476</v>
       </c>
       <c r="C2" s="0">
         <v>98.719999999999999</v>
@@ -1553,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
       <c r="C3" s="0">
         <v>96.790000000000006</v>
@@ -1603,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>478</v>
       </c>
       <c r="C4" s="0">
         <v>90.400000000000006</v>
@@ -1653,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>479</v>
       </c>
       <c r="C5" s="0">
         <v>85.120000000000005</v>
@@ -1703,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>480</v>
       </c>
       <c r="C6" s="0">
         <v>91.269999999999996</v>
@@ -1753,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>481</v>
       </c>
       <c r="C7" s="0">
         <v>85.709999999999994</v>
@@ -1827,52 +3120,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>504</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>505</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
+        <v>506</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>507</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>508</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>510</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>94</v>
+        <v>511</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>95</v>
+        <v>512</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>96</v>
+        <v>513</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>97</v>
+        <v>514</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>98</v>
+        <v>515</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>99</v>
+        <v>516</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>100</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2">
@@ -1880,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="C2" s="0">
         <v>93.909999999999997</v>
@@ -1930,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="C3" s="0">
         <v>91.030000000000001</v>
@@ -1980,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="C4" s="0">
         <v>92.930000000000007</v>
@@ -2030,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>501</v>
       </c>
       <c r="C5" s="0">
         <v>80.060000000000002</v>
@@ -2080,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>85</v>
+        <v>502</v>
       </c>
       <c r="C6" s="0">
         <v>90.480000000000004</v>
@@ -2130,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>503</v>
       </c>
       <c r="C7" s="0">
         <v>80.560000000000002</v>
@@ -2204,52 +3497,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>101</v>
+        <v>518</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>519</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>109</v>
+        <v>526</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>527</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>528</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>529</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>113</v>
+        <v>530</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>114</v>
+        <v>531</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>115</v>
+        <v>532</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>116</v>
+        <v>533</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>117</v>
+        <v>534</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>118</v>
+        <v>535</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>120</v>
+        <v>537</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>121</v>
+        <v>538</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>122</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2">
@@ -2257,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>520</v>
       </c>
       <c r="C2" s="0">
         <v>96.150000000000006</v>
@@ -2307,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>521</v>
       </c>
       <c r="C3" s="0">
         <v>94.870000000000005</v>
@@ -2357,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>105</v>
+        <v>522</v>
       </c>
       <c r="C4" s="0">
         <v>94.439999999999998</v>
@@ -2407,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>106</v>
+        <v>523</v>
       </c>
       <c r="C5" s="0">
         <v>84.519999999999996</v>
@@ -2457,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>524</v>
       </c>
       <c r="C6" s="0">
         <v>94.840000000000003</v>
@@ -2507,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>108</v>
+        <v>525</v>
       </c>
       <c r="C7" s="0">
         <v>86.900000000000006</v>
@@ -2575,34 +3868,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>123</v>
+        <v>540</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>124</v>
+        <v>541</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>131</v>
+        <v>548</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>132</v>
+        <v>549</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>133</v>
+        <v>550</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>134</v>
+        <v>551</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>136</v>
+        <v>553</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>137</v>
+        <v>554</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>138</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2">
@@ -2610,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>125</v>
+        <v>542</v>
       </c>
       <c r="C2" s="0">
         <v>7.0499999999999998</v>
@@ -2642,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>126</v>
+        <v>543</v>
       </c>
       <c r="C3" s="0">
         <v>8.9700000000000006</v>
@@ -2674,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>127</v>
+        <v>544</v>
       </c>
       <c r="C4" s="0">
         <v>16.16</v>
@@ -2706,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>128</v>
+        <v>545</v>
       </c>
       <c r="C5" s="0">
         <v>10.710000000000001</v>
@@ -2738,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>129</v>
+        <v>546</v>
       </c>
       <c r="C6" s="0">
         <v>10.32</v>
@@ -2770,7 +4063,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>130</v>
+        <v>547</v>
       </c>
       <c r="C7" s="0">
         <v>4.7599999999999998</v>
